--- a/IBMi_SDK_Documentation/ASIAI Data Structure.xlsx
+++ b/IBMi_SDK_Documentation/ASIAI Data Structure.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\ASIA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="9555" windowHeight="8760"/>
   </bookViews>
@@ -221,9 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve">         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dim(100)</t>
   </si>
   <si>
     <t xml:space="preserve">Char </t>
@@ -822,6 +824,9 @@
   </si>
   <si>
     <t xml:space="preserve">TaxIncluded indicates the tax amount has already been included in the line amount. The tax will be reversed out and returned in the tax property. The taxable property will indicate the calculated tax base amount. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dim(999)</t>
   </si>
 </sst>
 </file>
@@ -926,6 +931,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -973,7 +981,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1008,7 +1016,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1220,8 +1228,8 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1255,15 +1263,15 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1288,10 +1296,10 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>8</v>
@@ -1312,10 +1320,10 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>8</v>
@@ -1336,10 +1344,10 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>9</v>
@@ -1360,10 +1368,10 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>9</v>
@@ -1384,10 +1392,10 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -1408,10 +1416,10 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>8</v>
@@ -1432,10 +1440,10 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -1456,10 +1464,10 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>9</v>
@@ -1480,10 +1488,10 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -1504,10 +1512,10 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>8</v>
@@ -1528,10 +1536,10 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
@@ -1552,10 +1560,10 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>9</v>
@@ -1576,10 +1584,10 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -1600,10 +1608,10 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>9</v>
@@ -1624,10 +1632,10 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>8</v>
@@ -1648,10 +1656,10 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>9</v>
@@ -1672,10 +1680,10 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>8</v>
@@ -1696,10 +1704,10 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>9</v>
@@ -1713,17 +1721,17 @@
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>8</v>
@@ -1737,17 +1745,17 @@
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>9</v>
@@ -1761,17 +1769,17 @@
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
@@ -1785,17 +1793,17 @@
         <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="5">
         <v>4</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>9</v>
@@ -1809,17 +1817,17 @@
         <v>10</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -1833,17 +1841,17 @@
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>9</v>
@@ -1857,17 +1865,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -1881,17 +1889,17 @@
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>8</v>
@@ -1905,17 +1913,17 @@
         <v>10</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>8</v>
@@ -1929,17 +1937,17 @@
         <v>15</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="5">
         <v>4</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>8</v>
@@ -1953,17 +1961,17 @@
         <v>10</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>8</v>
@@ -1977,17 +1985,17 @@
         <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>8</v>
@@ -1998,20 +2006,20 @@
         <v>40</v>
       </c>
       <c r="B33" s="5">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -2025,17 +2033,17 @@
         <v>25</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>8</v>
@@ -2049,17 +2057,17 @@
         <v>15</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="5">
         <v>6</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>8</v>
@@ -2073,17 +2081,17 @@
         <v>15</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="5">
         <v>6</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>8</v>
@@ -2104,10 +2112,10 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>8</v>
@@ -2126,10 +2134,10 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>9</v>
@@ -2137,7 +2145,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2164,10 +2172,10 @@
         <v>66</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>9</v>
@@ -2188,10 +2196,10 @@
         <v>66</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>9</v>
@@ -2212,10 +2220,10 @@
         <v>66</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>9</v>
@@ -2236,10 +2244,10 @@
         <v>66</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
@@ -2260,10 +2268,10 @@
         <v>66</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>9</v>
@@ -2284,10 +2292,10 @@
         <v>66</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>9</v>
@@ -2308,10 +2316,10 @@
         <v>66</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>9</v>
@@ -2332,10 +2340,10 @@
         <v>66</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>9</v>
@@ -2358,10 +2366,10 @@
         <v>66</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>8</v>
@@ -2382,10 +2390,10 @@
         <v>66</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>9</v>
@@ -2406,10 +2414,10 @@
         <v>66</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>9</v>
@@ -2417,7 +2425,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>65</v>
@@ -2447,13 +2455,13 @@
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>9</v>
@@ -2471,13 +2479,13 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>9</v>
@@ -2495,13 +2503,13 @@
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>9</v>
@@ -2519,13 +2527,13 @@
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>9</v>
@@ -2543,13 +2551,13 @@
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>9</v>
@@ -2569,13 +2577,13 @@
         <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>8</v>
@@ -2595,13 +2603,13 @@
         <v>4</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>8</v>
@@ -2619,13 +2627,13 @@
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>8</v>
@@ -2633,23 +2641,23 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="5">
         <v>50</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>9</v>
@@ -2657,23 +2665,23 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="5">
         <v>50</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>9</v>
@@ -2681,23 +2689,23 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="5">
         <v>50</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>9</v>
@@ -2705,23 +2713,23 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" s="5">
         <v>25</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>9</v>
@@ -2729,23 +2737,23 @@
     </row>
     <row r="64" spans="1:8" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="5">
         <v>25</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>9</v>
@@ -2753,23 +2761,23 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" s="5">
         <v>200</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>9</v>
@@ -2777,23 +2785,23 @@
     </row>
     <row r="66" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" s="5">
         <v>25</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>9</v>
@@ -2801,25 +2809,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="5">
         <v>15</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" s="5">
         <v>4</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>9</v>
@@ -2827,23 +2835,23 @@
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" s="5">
         <v>10</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>9</v>
@@ -2851,23 +2859,23 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" s="5">
         <v>25</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>9</v>
@@ -2875,23 +2883,23 @@
     </row>
     <row r="70" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" s="5">
         <v>5</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>9</v>
@@ -2899,23 +2907,23 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71" s="5">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>9</v>
